--- a/PPG/Videos.xlsx
+++ b/PPG/Videos.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD756D14-8FDB-5D48-B002-75A5F121BDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2ECDE6-C1E0-7E44-AD2C-665F8A383A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023 I Forum Discente ABRAPG-FT" sheetId="1" r:id="rId1"/>
+    <sheet name="Locais" sheetId="5" r:id="rId1"/>
+    <sheet name="Nacionais" sheetId="3" r:id="rId2"/>
+    <sheet name="Internacionais" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 I Forum Discente ABRAPG-FT'!$A$1:$B$27</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
   <si>
     <t>O EFEITO DE DIFERENTES TÉCNICAS DE BIOFEEDBACK SOBRE O NÍVEL DE ATIVIDADE MUSCULAR EM ORTOSTATISMO</t>
   </si>
@@ -108,86 +107,311 @@
     <t>A EFICÁCIA DA ESTIMULAÇÃO TRANSCRANIANA CÉREBRO-ESPINHAL EM PACIENTES COM ATAXIA ESPINOCEREBELAR - UM ESTUDO PRAGMÁTICO</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>https://youtu.be/uq6g6oo1N4E</t>
-  </si>
-  <si>
-    <t>https://youtu.be/irgNqmpRlJE</t>
-  </si>
-  <si>
-    <t>https://youtu.be/jvl14ktqGEQ</t>
-  </si>
-  <si>
-    <t>https://youtu.be/agRIJlWiqaY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ctHw3Wt620Q</t>
-  </si>
-  <si>
-    <t>https://youtu.be/d2RkYJuVI6w</t>
-  </si>
-  <si>
-    <t>https://youtu.be/i7cC_5WAF7U</t>
-  </si>
-  <si>
-    <t>https://youtu.be/zPi62ph2J6Y</t>
-  </si>
-  <si>
-    <t>https://youtu.be/MloAQHwJGMc</t>
-  </si>
-  <si>
-    <t>https://youtu.be/X0gX4st-vVQ</t>
-  </si>
-  <si>
-    <t>https://youtu.be/km9X6OU9wVI</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9aBlsjaX-Ns</t>
-  </si>
-  <si>
-    <t>https://youtu.be/mBDQSvum56s</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Hx4PTcXxnTU</t>
-  </si>
-  <si>
-    <t>https://youtu.be/t_C00nNGEWg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/OQfa6fYVAzY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/GndYKDAvc2k</t>
-  </si>
-  <si>
-    <t>https://youtu.be/IQcXXgLQkpk</t>
-  </si>
-  <si>
-    <t>https://youtu.be/WvWfaaRP1ng</t>
-  </si>
-  <si>
-    <t>https://youtu.be/lop1LQi3NXM</t>
-  </si>
-  <si>
-    <t>https://youtu.be/FZldWS8WNYY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ygzPVO3ruwQ</t>
-  </si>
-  <si>
-    <t>https://youtu.be/CzEFb_iRed4</t>
-  </si>
-  <si>
     <t>Título</t>
+  </si>
+  <si>
+    <t>Publicação</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>11/08/2023</t>
+  </si>
+  <si>
+    <t>Aula inaugural</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hX8JTcRvGgCcvjgCNgQtbHTku__ZWeFt/preview</t>
+  </si>
+  <si>
+    <t>Simpósio Docente UNISUAM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/JuKDdmZBH2U</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Aula inaugural 2023-2</t>
+  </si>
+  <si>
+    <t>Como elaborar projeto para agências de fomento</t>
+  </si>
+  <si>
+    <t>5o Simpósio Paradesportivo Carioca</t>
+  </si>
+  <si>
+    <t>O eMuseu do Esporte: o esporte adaptado ao alcance de todos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/1O_S0kEW9Rk</t>
+  </si>
+  <si>
+    <t>Semana de Pesquisa, Extensão e Inovação</t>
+  </si>
+  <si>
+    <t>14/05/2021</t>
+  </si>
+  <si>
+    <t>Comemoração dos 11 Anos do Programa de Pós-graduação em Ciências da Reabilitação (PPGCR) | UNISUAM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/sBn1gOF8Atg</t>
+  </si>
+  <si>
+    <t>22/10/2021</t>
+  </si>
+  <si>
+    <t>XXVI Simpósio Docente UNISUAM</t>
+  </si>
+  <si>
+    <t>12/08/2022</t>
+  </si>
+  <si>
+    <t>Como elaborar um projeto para agência de fomento?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/lTCOy16h72M</t>
+  </si>
+  <si>
+    <t>I Seminário do Grupo de Pesquisas de Reabilitação no Esporte Adaptado do PPGCR | UNISUAM</t>
+  </si>
+  <si>
+    <t>17/11/2021</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/oCiy3mVQzwc</t>
+  </si>
+  <si>
+    <t>Apresentação de seminários do grupo de pesquisa</t>
+  </si>
+  <si>
+    <t>Da pandemia de COVID-19 à quebra de record mundial</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/fgH6bdfPNIw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/76131bUiBxs</t>
+  </si>
+  <si>
+    <t>Minha história junto à CAPES</t>
+  </si>
+  <si>
+    <t>Gabriela Saliba</t>
+  </si>
+  <si>
+    <t>Semana Internacional de Pesquisa, Extensão, Pós-Graduação e Inovação</t>
+  </si>
+  <si>
+    <t>21/10/2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/sOPly6iq_Ks</t>
+  </si>
+  <si>
+    <t>Tecnologias em saúde</t>
+  </si>
+  <si>
+    <t>Entrevista</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/khl3Jgfsag8</t>
+  </si>
+  <si>
+    <t>intervenção osteopática na doença COVID longa - Osteotalks com Dra. Ana Ferreira e Dra. Ana Curi</t>
+  </si>
+  <si>
+    <t>04/05/2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Gxp1Jf_E4y0</t>
+  </si>
+  <si>
+    <t>Webinar Internacional</t>
+  </si>
+  <si>
+    <t>Patient tolerated intramuscular electrical stimulation using inverse electrodes placement on chronic shoulder pain in post stroke survivors - A RCT</t>
+  </si>
+  <si>
+    <t>21/06/2022</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>Does Kinesiophobia have relation to pain intensity, disability, muscle endurance and position sense in Chronic Low Back Pain patients?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/U82ga-7a6UY</t>
+  </si>
+  <si>
+    <t>02/05/2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/WmHL5xColOU</t>
+  </si>
+  <si>
+    <t>Evaluation of body posture and postural balance among young adults with bronchial asthma in the United Arab Emirates - A correlational cross setional study</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/cS0fTOzBtPg</t>
+  </si>
+  <si>
+    <t>Exercise as medicine for insulin resistance and its effect on telomere length, inflammatory markers, funcional capacity and quality of life in patients with type 2 diabetes mellitus - A prospective, multicentre, single-blinded, randmised controlled trial</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>Neck extensor muscle endurance and cervical proprioception between asymptomatic and chronic neck pain subjects</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/9NqqtmxrDzs</t>
+  </si>
+  <si>
+    <t>13/08/2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/g3UPrMRnuWw</t>
+  </si>
+  <si>
+    <t>Transcranial direct current stimulation combined with trunk targeted proprioceptive neuromuscular facilitation in sub-acute stroke: a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>14/08/2021</t>
+  </si>
+  <si>
+    <t>11/04/2023</t>
+  </si>
+  <si>
+    <t>1o Congresso de Saúde da UNISUAM - Healthcare Innovation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/gqgdUrxDzMo</t>
+  </si>
+  <si>
+    <t>Intramuscular electrical stimulation as central pain modulator</t>
+  </si>
+  <si>
+    <t>15/11/2022</t>
+  </si>
+  <si>
+    <t>II Simpósio de Ciências da Reabilitação e I Simpósio Internacional Online “Rehabilitación Post Covid-19: Nuevos desafíos y paradigmas</t>
+  </si>
+  <si>
+    <t>Apresentaçào de trabalhos</t>
+  </si>
+  <si>
+    <t>Webinar internacional "Essentials of Clinical Investigations: Physiotherapist Perspective"</t>
+  </si>
+  <si>
+    <t>02/02/2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/dd994Nj-HF4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/RqoKeSQf6tg</t>
+  </si>
+  <si>
+    <t>Assessment of postural control and risk of falls</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>Assessment and management of diabetic foot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/LCwWYpWo6fs</t>
+  </si>
+  <si>
+    <t>I Forum Discente ABRAPG-FT</t>
+  </si>
+  <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>16/08/2021</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/FZldWS8WNYY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/uq6g6oo1N4E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MloAQHwJGMc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/X0gX4st-vVQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/d2RkYJuVI6w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/irgNqmpRlJE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/km9X6OU9wVI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/zPi62ph2J6Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ctHw3Wt620Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/9aBlsjaX-Ns</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/mBDQSvum56s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/i7cC_5WAF7U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/CzEFb_iRed4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Hx4PTcXxnTU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/t_C00nNGEWg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/OQfa6fYVAzY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/GndYKDAvc2k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/jvl14ktqGEQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ygzPVO3ruwQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/agRIJlWiqaY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IQcXXgLQkpk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/WvWfaaRP1ng</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/lop1LQi3NXM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,16 +432,24 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,7 +463,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -239,38 +471,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,267 +808,800 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B792382E-7DF7-47D0-9455-1D37DF25387D}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F351F4-635F-8543-B5D4-83F4FAEDA954}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="101" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="28" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A27">
-    <sortCondition ref="A1:A27"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{7D9D26D2-F138-5D4B-B813-0228F0017533}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{934BD53D-EF07-CB4B-8CA3-365A003EC6FD}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{5D228C63-49A2-A94C-A328-608631F7B07E}"/>
-    <hyperlink ref="B22" r:id="rId4" xr:uid="{B834BC5B-C010-F743-9282-756B3DFD018C}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{29B4C302-B0BB-4944-A65D-5C058EEE7621}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{7D62E96C-BB71-A44A-83C9-251205110365}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{69BA41C1-882F-4A49-AD11-7F52736AD684}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{0AD8E065-D7BE-A843-A6EE-C9503337AF69}"/>
-    <hyperlink ref="B4" r:id="rId9" xr:uid="{54B519E5-04C7-8944-A410-ED918AC67887}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{A78BC92E-EF63-0345-AA8E-C8D4408FB909}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{5B232A8B-111A-744E-B907-5BA2BDB03DF3}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{AF5325E0-9B33-B749-9E87-63E9E79E45C4}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{9FE2A074-9084-EE4E-92F7-EF45E19765D4}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{9F7372E7-B983-FA47-B6F0-47B0CA5D509B}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{2BE1C354-406B-B44E-BC06-C827BDE05380}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{12BF49E9-8DEC-8944-87AD-67885B3C578C}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{A17E1A22-7BDF-AE43-BCCC-E8B0E13F042F}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{9B637C55-75DB-F140-81E4-2E03ED5B079E}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{96422363-1ADB-814C-A0D2-AE006E2E438B}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{7588DE8C-AC76-D443-BCE8-9CBD9598B244}"/>
-    <hyperlink ref="B27" r:id="rId21" xr:uid="{7FF985F7-191A-DC4D-8E81-064F8AA9E4F3}"/>
-    <hyperlink ref="B2" r:id="rId22" xr:uid="{9DC19B29-A106-9B4A-B8CD-5756AD398693}"/>
-    <hyperlink ref="B25" r:id="rId23" xr:uid="{E406E9F8-98DB-4E41-A258-1E1CF6F6D481}"/>
-    <hyperlink ref="B26" r:id="rId24" xr:uid="{75E8BF1B-63F1-8D47-B0FA-A1A62AAD4997}"/>
-    <hyperlink ref="B21" r:id="rId25" xr:uid="{E24FC446-CDEB-DD4A-B0EC-C494C3EA69CD}"/>
-    <hyperlink ref="B14" r:id="rId26" xr:uid="{CBB90F61-BE58-FA40-9E56-D54D8377E031}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{2A825C13-88DB-434D-AFD9-DAF39528C4DE}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{7015DEE8-1EA8-C14D-BE68-C29FBE8CACF6}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{8C7FD5CF-BE8E-1B4A-96FD-26CB3B1F003D}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{20CCBEFC-1675-C849-B8E9-BF14D0EEEF11}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{0A519C55-22AA-FF4F-BEC6-01246EEB60D4}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{9070B32C-21D3-5B4F-9B58-D898F57E466F}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{CA2185A3-F8DF-564C-9805-8D1E1A3A7A35}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3BE369-CE0A-E24D-911C-E94B08EA3B9B}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="170" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{936BC433-5680-874D-AE61-BB9F8F7E7FEE}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{2E57BFE2-1281-3E46-9B02-E7DD213E0AF3}"/>
+    <hyperlink ref="D20" r:id="rId3" display="https://youtu.be/jvl14ktqGEQ" xr:uid="{94DA0636-0DDA-1040-B5DC-73784CA1D094}"/>
+    <hyperlink ref="D22" r:id="rId4" display="https://youtu.be/agRIJlWiqaY" xr:uid="{2D64863F-78E7-A34E-AF78-349618388A91}"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://youtu.be/ctHw3Wt620Q" xr:uid="{9C4FF40C-B747-2D40-9439-770FE1AC855B}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{154FA79D-83D9-CF4B-A73C-6F345075B0D0}"/>
+    <hyperlink ref="D13" r:id="rId7" display="https://youtu.be/i7cC_5WAF7U" xr:uid="{F6F7DAE3-BC50-8F40-9D42-7ABDBB983502}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://youtu.be/zPi62ph2J6Y" xr:uid="{4FC160AA-E19E-AE4E-AD5C-7945FF28AF7C}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{6A5C4E38-8656-B94C-AB09-E957A55A14E8}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{9A4A81CC-57C4-0148-9599-2075AE6204AE}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{6CFCCCDC-D3E0-9848-822E-720FEC4F4A6F}"/>
+    <hyperlink ref="D11" r:id="rId12" display="https://youtu.be/9aBlsjaX-Ns" xr:uid="{52C7070C-3D4F-8845-8FE5-10668ADCD2BE}"/>
+    <hyperlink ref="D12" r:id="rId13" display="https://youtu.be/mBDQSvum56s" xr:uid="{CAFE99C8-91EF-BB46-8DC6-CCDD56C1D1AE}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://youtu.be/Hx4PTcXxnTU" xr:uid="{374FB0D9-8BF1-C844-9D0F-C3ED4C30FB06}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://youtu.be/t_C00nNGEWg" xr:uid="{243540B5-BF7F-5B40-B32B-192ECDDF2D27}"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://youtu.be/OQfa6fYVAzY" xr:uid="{66F73CD4-1316-5140-94C9-45CE7215B3A4}"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://youtu.be/GndYKDAvc2k" xr:uid="{27432E0B-1B29-D745-8DFC-8503D27AEE76}"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://youtu.be/jvl14ktqGEQ" xr:uid="{3AC97D1A-2A3D-D447-9ABE-3781992AE813}"/>
+    <hyperlink ref="D23" r:id="rId19" display="https://youtu.be/IQcXXgLQkpk" xr:uid="{AA235942-0342-904E-8EBF-682C9550A9D9}"/>
+    <hyperlink ref="D24" r:id="rId20" display="https://youtu.be/WvWfaaRP1ng" xr:uid="{B5D16B22-A127-054B-868B-773A904B91D4}"/>
+    <hyperlink ref="D27" r:id="rId21" display="https://youtu.be/lop1LQi3NXM" xr:uid="{765AD5BB-2CE6-7747-8855-C6B56DEBC3D3}"/>
+    <hyperlink ref="D2" r:id="rId22" xr:uid="{7FF8D544-A17C-2F4B-995C-488F0C64D869}"/>
+    <hyperlink ref="D25" r:id="rId23" display="https://youtu.be/FZldWS8WNYY" xr:uid="{BC9722C0-F11A-5A41-97B8-347FD1BCC036}"/>
+    <hyperlink ref="D26" r:id="rId24" display="https://youtu.be/ygzPVO3ruwQ" xr:uid="{192145F4-81F9-7A4D-B891-F045DDD2F2B2}"/>
+    <hyperlink ref="D21" r:id="rId25" display="https://youtu.be/ygzPVO3ruwQ" xr:uid="{0FB1079D-5403-5E4C-AE81-019E1AB7C4E7}"/>
+    <hyperlink ref="D14" r:id="rId26" display="https://youtu.be/CzEFb_iRed4" xr:uid="{ECCFE589-D137-1E47-9D5D-E43EB4106F07}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C525913-1F7C-AE49-B039-DD45A3AAC12D}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{D64A6293-9C5C-244C-85FE-650A86D67D50}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{A8AC0EEE-9F72-E147-B258-9C6ACB09DF20}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{B500B981-D5E8-494E-9DBE-AB693BD30D7D}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{3921F9EE-F87D-3143-B2F3-E2DAEE85BC2E}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{9055A182-6C76-2A41-9066-DA8DE18779D2}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{9BE6DDF1-B25D-E246-85D5-CAFC0E405BDA}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{4E96B1F8-F7D7-9441-A4D5-4B1519AD853A}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{2619720F-EBC4-9A47-B408-32B7343BB978}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{FC5A594E-DE46-4241-B335-A6F508AD0FE4}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{5F8EDB2C-0ECA-A742-9482-FA7F1873916B}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{CA3ED552-349A-C842-9500-DD5929073592}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{23530429-888B-FB45-A8BC-9F941C27A61A}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/PPG/Videos.xlsx
+++ b/PPG/Videos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2ECDE6-C1E0-7E44-AD2C-665F8A383A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DDB170-1243-3B4C-A3DF-D0B31FA48F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
   <si>
     <t>O EFEITO DE DIFERENTES TÉCNICAS DE BIOFEEDBACK SOBRE O NÍVEL DE ATIVIDADE MUSCULAR EM ORTOSTATISMO</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Gabriela Saliba</t>
   </si>
   <si>
-    <t>Semana Internacional de Pesquisa, Extensão, Pós-Graduação e Inovação</t>
-  </si>
-  <si>
     <t>21/10/2022</t>
   </si>
   <si>
@@ -405,6 +402,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/lop1LQi3NXM</t>
+  </si>
+  <si>
+    <t>XIX Semana Internacional de Pesquisa, Extensão, Pós-Graduação e Inovação</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>XX Semana Internacional de Pesquisa, Extensão, Pós-Graduação e Inovação</t>
+  </si>
+  <si>
+    <t>Palestra de abertura</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ZUmHZ6KnQBw</t>
   </si>
 </sst>
 </file>
@@ -476,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -485,9 +497,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -924,7 +933,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>56</v>
@@ -972,389 +981,388 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="170" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="170" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C525913-1F7C-AE49-B039-DD45A3AAC12D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1421,186 +1429,201 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{D64A6293-9C5C-244C-85FE-650A86D67D50}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{A8AC0EEE-9F72-E147-B258-9C6ACB09DF20}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{B500B981-D5E8-494E-9DBE-AB693BD30D7D}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{3921F9EE-F87D-3143-B2F3-E2DAEE85BC2E}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{9055A182-6C76-2A41-9066-DA8DE18779D2}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{9BE6DDF1-B25D-E246-85D5-CAFC0E405BDA}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{4E96B1F8-F7D7-9441-A4D5-4B1519AD853A}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{2619720F-EBC4-9A47-B408-32B7343BB978}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{FC5A594E-DE46-4241-B335-A6F508AD0FE4}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{5F8EDB2C-0ECA-A742-9482-FA7F1873916B}"/>
-    <hyperlink ref="D3" r:id="rId11" xr:uid="{CA3ED552-349A-C842-9500-DD5929073592}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{23530429-888B-FB45-A8BC-9F941C27A61A}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{D64A6293-9C5C-244C-85FE-650A86D67D50}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{A8AC0EEE-9F72-E147-B258-9C6ACB09DF20}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{B500B981-D5E8-494E-9DBE-AB693BD30D7D}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{3921F9EE-F87D-3143-B2F3-E2DAEE85BC2E}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{9055A182-6C76-2A41-9066-DA8DE18779D2}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{9BE6DDF1-B25D-E246-85D5-CAFC0E405BDA}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{4E96B1F8-F7D7-9441-A4D5-4B1519AD853A}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{2619720F-EBC4-9A47-B408-32B7343BB978}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{FC5A594E-DE46-4241-B335-A6F508AD0FE4}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{5F8EDB2C-0ECA-A742-9482-FA7F1873916B}"/>
+    <hyperlink ref="D4" r:id="rId11" xr:uid="{CA3ED552-349A-C842-9500-DD5929073592}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{23530429-888B-FB45-A8BC-9F941C27A61A}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{A7116E85-86D0-6649-8A09-A1E143F430B6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Videos.xlsx
+++ b/PPG/Videos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DDB170-1243-3B4C-A3DF-D0B31FA48F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE519CA-3B14-4B45-A837-F4A5DCA04718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
   </bookViews>
   <sheets>
     <sheet name="Locais" sheetId="5" r:id="rId1"/>
@@ -467,12 +467,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -488,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -503,6 +509,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -820,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F351F4-635F-8543-B5D4-83F4FAEDA954}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -977,7 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3BE369-CE0A-E24D-911C-E94B08EA3B9B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1085,17 +1101,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1225,31 +1241,31 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="10" t="s">
         <v>119</v>
       </c>
     </row>

--- a/PPG/Videos.xlsx
+++ b/PPG/Videos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE519CA-3B14-4B45-A837-F4A5DCA04718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1EFD9-1C68-A041-B1F4-EEFB0EE1A42A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" activeTab="2" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
   </bookViews>
   <sheets>
     <sheet name="Locais" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>O EFEITO DE DIFERENTES TÉCNICAS DE BIOFEEDBACK SOBRE O NÍVEL DE ATIVIDADE MUSCULAR EM ORTOSTATISMO</t>
   </si>
@@ -417,6 +417,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/ZUmHZ6KnQBw</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/vvkvGVo-hDM</t>
+  </si>
+  <si>
+    <t>C5-C6 and thoracic spine mobilization with postural correction exercise compared with conventional therapy in patients with adhesive capsulitis - A two-group, parallel-arm, single-blinded, randomized clinical</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3BE369-CE0A-E24D-911C-E94B08EA3B9B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1416,9 +1425,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C525913-1F7C-AE49-B039-DD45A3AAC12D}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1445,201 +1454,216 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{D64A6293-9C5C-244C-85FE-650A86D67D50}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{A8AC0EEE-9F72-E147-B258-9C6ACB09DF20}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{B500B981-D5E8-494E-9DBE-AB693BD30D7D}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{3921F9EE-F87D-3143-B2F3-E2DAEE85BC2E}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{9055A182-6C76-2A41-9066-DA8DE18779D2}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{9BE6DDF1-B25D-E246-85D5-CAFC0E405BDA}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{4E96B1F8-F7D7-9441-A4D5-4B1519AD853A}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{2619720F-EBC4-9A47-B408-32B7343BB978}"/>
-    <hyperlink ref="D3" r:id="rId9" xr:uid="{FC5A594E-DE46-4241-B335-A6F508AD0FE4}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{5F8EDB2C-0ECA-A742-9482-FA7F1873916B}"/>
-    <hyperlink ref="D4" r:id="rId11" xr:uid="{CA3ED552-349A-C842-9500-DD5929073592}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{23530429-888B-FB45-A8BC-9F941C27A61A}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{A7116E85-86D0-6649-8A09-A1E143F430B6}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{D64A6293-9C5C-244C-85FE-650A86D67D50}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{A8AC0EEE-9F72-E147-B258-9C6ACB09DF20}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{B500B981-D5E8-494E-9DBE-AB693BD30D7D}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{3921F9EE-F87D-3143-B2F3-E2DAEE85BC2E}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{9055A182-6C76-2A41-9066-DA8DE18779D2}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{9BE6DDF1-B25D-E246-85D5-CAFC0E405BDA}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{4E96B1F8-F7D7-9441-A4D5-4B1519AD853A}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{2619720F-EBC4-9A47-B408-32B7343BB978}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{FC5A594E-DE46-4241-B335-A6F508AD0FE4}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{5F8EDB2C-0ECA-A742-9482-FA7F1873916B}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{CA3ED552-349A-C842-9500-DD5929073592}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{23530429-888B-FB45-A8BC-9F941C27A61A}"/>
+    <hyperlink ref="D3" r:id="rId13" xr:uid="{A7116E85-86D0-6649-8A09-A1E143F430B6}"/>
+    <hyperlink ref="D2" r:id="rId14" xr:uid="{A738FCA3-5FEF-0D45-8EF4-E8A0E979A6A3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Videos.xlsx
+++ b/PPG/Videos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1EFD9-1C68-A041-B1F4-EEFB0EE1A42A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7CF181-1412-0B44-A40A-F38A15207C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" activeTab="2" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
   </bookViews>
   <sheets>
     <sheet name="Locais" sheetId="5" r:id="rId1"/>
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F351F4-635F-8543-B5D4-83F4FAEDA954}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1000,9 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3BE369-CE0A-E24D-911C-E94B08EA3B9B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1096,17 +1094,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1166,17 +1164,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1222,17 +1220,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="6" t="s">
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1292,17 +1290,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1362,17 +1360,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="6" t="s">
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1427,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C525913-1F7C-AE49-B039-DD45A3AAC12D}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PPG/Videos.xlsx
+++ b/PPG/Videos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7CF181-1412-0B44-A40A-F38A15207C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E3267D-EAF2-4940-AD5B-1B40E2B93335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{F0B8644C-7AD8-4231-BDB4-C3B3DBC33299}"/>
   </bookViews>
   <sheets>
     <sheet name="Locais" sheetId="5" r:id="rId1"/>
@@ -476,18 +476,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -503,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -512,20 +506,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -843,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F351F4-635F-8543-B5D4-83F4FAEDA954}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1000,38 +989,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3BE369-CE0A-E24D-911C-E94B08EA3B9B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="170" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="170" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1039,13 +1029,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1053,13 +1043,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1067,13 +1057,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1081,20 +1071,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>100</v>
       </c>
@@ -1104,11 +1094,11 @@
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>100</v>
       </c>
@@ -1118,18 +1108,18 @@
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1137,13 +1127,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1151,20 +1141,20 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>100</v>
       </c>
@@ -1174,18 +1164,18 @@
       <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1193,13 +1183,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1207,20 +1197,20 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>100</v>
       </c>
@@ -1230,25 +1220,25 @@
       <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>100</v>
       </c>
@@ -1258,11 +1248,11 @@
       <c r="C18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>100</v>
       </c>
@@ -1272,25 +1262,25 @@
       <c r="C19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>100</v>
       </c>
@@ -1300,18 +1290,18 @@
       <c r="C21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1319,13 +1309,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1333,13 +1323,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="A24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1347,20 +1337,20 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>100</v>
       </c>
@@ -1370,18 +1360,18 @@
       <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="A27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
